--- a/.idea/技術調査表.xlsx
+++ b/.idea/技術調査表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>注意書き</t>
     <rPh sb="0" eb="3">
@@ -720,6 +720,46 @@
     <t>BGM音量のフェードアウト</t>
     <rPh sb="3" eb="5">
       <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位（高中低）</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,7 +768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,8 +792,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,6 +834,21 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -810,12 +889,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,9 +922,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1135,368 +1247,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="K13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="L27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="10:12" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J29" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="K29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J31" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="10:12" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J32" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J34" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J45" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J47" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J48" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="K48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J49" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="K49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J50" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.15">
       <c r="K50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="K52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/.idea/技術調査表.xlsx
+++ b/.idea/技術調査表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>注意書き</t>
     <rPh sb="0" eb="3">
@@ -760,6 +760,13 @@
     <t>低</t>
     <rPh sb="0" eb="1">
       <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +856,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -903,13 +928,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,13 +956,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,506 +1287,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K4" s="2" t="s">
+      <c r="N3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K5" s="2" t="s">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K5" s="13">
+        <v>3</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K6" s="2" t="s">
+      <c r="N5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K6" s="13">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K7" s="2" t="s">
+      <c r="N6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K8" s="2" t="s">
+      <c r="N7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K8" s="13">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K9" s="2" t="s">
+      <c r="N8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J10" s="4" t="s">
+      <c r="N9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K11" s="2" t="s">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J12" s="4" t="s">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="K13" s="2" t="s">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J14" s="4" t="s">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J15" s="4" t="s">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="M15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J16" s="4" t="s">
+      <c r="N15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K17" s="2" t="s">
+      <c r="N16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="N17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K18" s="2" t="s">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="N18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J19" s="4" t="s">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K20" s="2" t="s">
+      <c r="N19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K20">
         <v>18</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K21" s="2" t="s">
+      <c r="M20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K21">
         <v>19</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K22" s="2" t="s">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K22">
         <v>20</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K23" s="2" t="s">
+      <c r="M22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K23">
         <v>21</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K24" s="2" t="s">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K24">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K25" s="2" t="s">
+      <c r="M24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K26" s="2" t="s">
+      <c r="N25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="N26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K27" s="2" t="s">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="N27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K28" s="2" t="s">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="N28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J29" s="4" t="s">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K29">
         <v>27</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="N29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K30" s="2" t="s">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="N30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K31" s="2" t="s">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="N31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J32" s="4" t="s">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="M32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K33" s="2" t="s">
+      <c r="N32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K34" s="2" t="s">
+      <c r="N33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="N34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K35" s="2" t="s">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="N35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K36" s="2" t="s">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="M36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="N36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K37" s="2" t="s">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K37">
+        <v>35</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K38" s="2" t="s">
+      <c r="N37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K38">
+        <v>36</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="N38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K39" s="2" t="s">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K39">
+        <v>37</v>
+      </c>
+      <c r="M39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="N39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K40" s="2" t="s">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K40">
+        <v>38</v>
+      </c>
+      <c r="M40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K41" s="2" t="s">
+      <c r="N40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K41">
+        <v>39</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="N41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K42" s="2" t="s">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K42">
+        <v>40</v>
+      </c>
+      <c r="M42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K43" s="2" t="s">
+      <c r="N42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K43">
+        <v>41</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K44" s="2" t="s">
+      <c r="N43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <v>42</v>
+      </c>
+      <c r="M44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J45" s="4" t="s">
+      <c r="N44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K45">
+        <v>43</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="M45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="N45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K46" s="2" t="s">
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K46">
+        <v>44</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="N46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K47" s="2" t="s">
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K47">
+        <v>45</v>
+      </c>
+      <c r="M47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J48" s="4" t="s">
+      <c r="N47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K48">
+        <v>46</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="M48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="N48" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J49" s="4" t="s">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K49">
+        <v>47</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="M49" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="N49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="K50" s="2" t="s">
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K50">
+        <v>48</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="N50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="O50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/.idea/技術調査表.xlsx
+++ b/.idea/技術調査表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9870"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="技術調査以外で聴きたいところ" sheetId="2" r:id="rId2"/>
+    <sheet name="リリース手順" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>注意書き</t>
     <rPh sb="0" eb="3">
@@ -767,6 +767,323 @@
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidアプリリリース手順</t>
+    <rPh sb="14" eb="16">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Google Play Developerの登録</t>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25ドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払い用クレジットカード</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録用Googleアカウントで下記URLより登録</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://play.google.com/apps/publish/signup/</t>
+  </si>
+  <si>
+    <t>登録まで約48時間かかるのでアプリリリースの目途が立ち次第登録しておく</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.リリースアプリのapkファイルを作成</t>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考URL</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://androidstudio.hatenablog.com/entry/2014/07/26/154043</t>
+  </si>
+  <si>
+    <t>http://tokyo.supersoftware.co.jp/code/3858</t>
+  </si>
+  <si>
+    <t>デジタル署名をしていないと登録できない</t>
+    <rPh sb="4" eb="6">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アプリ情報を登録</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.apkファイルをアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Play Developer Consoleのアプリ画面内の APK からアップロード</t>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.アップロードしたアプリをGoogle Playで確認する</t>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://dev.classmethod.jp/smartphone/android/android-app-how-to-release/#toc-2</t>
+  </si>
+  <si>
+    <t>https://techacademy.jp/magazine/2255</t>
+  </si>
+  <si>
+    <t>審査～公開までに数時間かかる（審査通過時）</t>
+    <rPh sb="0" eb="2">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対やりたいところ（赤塗りつぶし）</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーランスエンジニアの案件状況（java）</t>
+    <rPh sb="12" eb="14">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何系の案件が多いか？</t>
+    <rPh sb="0" eb="2">
+      <t>ナニケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常駐の場合、東京以外で案件があるか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常駐の場合、どのような案件があるか？</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>系統別案件の平均契約期間</t>
+    <rPh sb="0" eb="2">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ用の実機購入に関して</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段以外のどこに着目して検討すれば良いか？</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チャクモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -775,7 +1092,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,8 +1140,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +1219,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -913,6 +1262,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -928,7 +1301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +1355,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1287,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1299,15 +1702,16 @@
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>68</v>
       </c>
@@ -1320,11 +1724,14 @@
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K3" s="13">
         <v>1</v>
       </c>
@@ -1337,9 +1744,10 @@
       <c r="N3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O3" s="16"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K4">
         <v>2</v>
       </c>
@@ -1349,9 +1757,10 @@
       <c r="N4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O4" s="10"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K5" s="13">
         <v>3</v>
       </c>
@@ -1362,9 +1771,10 @@
       <c r="N5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O5" s="17"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K6" s="13">
         <v>4</v>
       </c>
@@ -1375,9 +1785,10 @@
       <c r="N6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O6" s="17"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K7">
         <v>5</v>
       </c>
@@ -1387,9 +1798,10 @@
       <c r="N7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O7" s="8"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K8" s="13">
         <v>6</v>
       </c>
@@ -1400,9 +1812,10 @@
       <c r="N8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O8" s="17"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K9">
         <v>7</v>
       </c>
@@ -1412,9 +1825,10 @@
       <c r="N9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O9" s="8"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K10">
         <v>8</v>
       </c>
@@ -1427,9 +1841,10 @@
       <c r="N10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K11">
         <v>9</v>
       </c>
@@ -1439,9 +1854,10 @@
       <c r="N11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K12">
         <v>10</v>
       </c>
@@ -1454,9 +1870,10 @@
       <c r="N12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O12" s="9"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K13">
         <v>11</v>
       </c>
@@ -1466,9 +1883,10 @@
       <c r="N13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K14">
         <v>12</v>
       </c>
@@ -1481,9 +1899,10 @@
       <c r="N14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K15">
         <v>13</v>
       </c>
@@ -1496,9 +1915,10 @@
       <c r="N15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O15" s="8"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K16">
         <v>14</v>
       </c>
@@ -1511,9 +1931,10 @@
       <c r="N16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O16" s="8"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K17">
         <v>15</v>
       </c>
@@ -1523,9 +1944,10 @@
       <c r="N17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O17" s="9"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K18">
         <v>16</v>
       </c>
@@ -1535,9 +1957,10 @@
       <c r="N18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O18" s="9"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K19">
         <v>17</v>
       </c>
@@ -1550,9 +1973,10 @@
       <c r="N19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O19" s="8"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K20">
         <v>18</v>
       </c>
@@ -1562,9 +1986,10 @@
       <c r="N20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="8"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K21">
         <v>19</v>
       </c>
@@ -1574,9 +1999,10 @@
       <c r="N21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O21" s="9"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K22">
         <v>20</v>
       </c>
@@ -1586,9 +2012,10 @@
       <c r="N22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O22" s="8"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K23">
         <v>21</v>
       </c>
@@ -1598,9 +2025,10 @@
       <c r="N23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O23" s="9"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K24">
         <v>22</v>
       </c>
@@ -1610,9 +2038,10 @@
       <c r="N24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O24" s="8"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K25">
         <v>23</v>
       </c>
@@ -1622,9 +2051,10 @@
       <c r="N25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O25" s="8"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K26">
         <v>24</v>
       </c>
@@ -1634,9 +2064,10 @@
       <c r="N26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O26" s="9"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K27">
         <v>25</v>
       </c>
@@ -1646,9 +2077,10 @@
       <c r="N27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O27" s="9"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K28">
         <v>26</v>
       </c>
@@ -1658,9 +2090,10 @@
       <c r="N28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O28" s="7"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K29">
         <v>27</v>
       </c>
@@ -1673,9 +2106,10 @@
       <c r="N29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O29" s="7"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K30">
         <v>28</v>
       </c>
@@ -1685,9 +2119,10 @@
       <c r="N30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O30" s="7"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K31">
         <v>29</v>
       </c>
@@ -1697,9 +2132,10 @@
       <c r="N31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O31" s="7"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K32">
         <v>30</v>
       </c>
@@ -1712,9 +2148,10 @@
       <c r="N32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O32" s="8"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K33">
         <v>31</v>
       </c>
@@ -1724,10 +2161,11 @@
       <c r="N33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K34">
+      <c r="O33" s="8"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K34" s="27">
         <v>32</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -1736,9 +2174,10 @@
       <c r="N34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O34" s="26"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K35">
         <v>33</v>
       </c>
@@ -1748,9 +2187,10 @@
       <c r="N35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K36">
         <v>34</v>
       </c>
@@ -1760,10 +2200,11 @@
       <c r="N36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K37">
+      <c r="O36" s="9"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K37" s="27">
         <v>35</v>
       </c>
       <c r="M37" s="11" t="s">
@@ -1772,10 +2213,11 @@
       <c r="N37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K38">
+      <c r="O37" s="24"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K38" s="27">
         <v>36</v>
       </c>
       <c r="M38" s="12" t="s">
@@ -1784,10 +2226,11 @@
       <c r="N38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K39">
+      <c r="O38" s="25"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K39" s="27">
         <v>37</v>
       </c>
       <c r="M39" s="12" t="s">
@@ -1796,9 +2239,10 @@
       <c r="N39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O39" s="25"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K40">
         <v>38</v>
       </c>
@@ -1808,9 +2252,10 @@
       <c r="N40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O40" s="8"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K41">
         <v>39</v>
       </c>
@@ -1820,9 +2265,10 @@
       <c r="N41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O41" s="7"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K42">
         <v>40</v>
       </c>
@@ -1832,9 +2278,10 @@
       <c r="N42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O42" s="8"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K43">
         <v>41</v>
       </c>
@@ -1844,9 +2291,10 @@
       <c r="N43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O43" s="8"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K44">
         <v>42</v>
       </c>
@@ -1856,9 +2304,10 @@
       <c r="N44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O44" s="8"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K45">
         <v>43</v>
       </c>
@@ -1871,9 +2320,10 @@
       <c r="N45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O45" s="7"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K46">
         <v>44</v>
       </c>
@@ -1883,9 +2333,10 @@
       <c r="N46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O46" s="7"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K47">
         <v>45</v>
       </c>
@@ -1895,9 +2346,10 @@
       <c r="N47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O47" s="8"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K48">
         <v>46</v>
       </c>
@@ -1910,9 +2362,10 @@
       <c r="N48" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O48" s="7"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K49">
         <v>47</v>
       </c>
@@ -1925,9 +2378,10 @@
       <c r="N49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O49" s="9"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="11:16" x14ac:dyDescent="0.15">
       <c r="K50">
         <v>48</v>
       </c>
@@ -1937,7 +2391,8 @@
       <c r="N50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O50" s="1"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1948,12 +2403,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1961,13 +2471,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>